--- a/002-‘’Choco‘’SpecialRemake/003.PickAndPlace_CK_085_DCDC_Special_remake.xlsx
+++ b/002-‘’Choco‘’SpecialRemake/003.PickAndPlace_CK_085_DCDC_Special_remake.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39F589-D513-46F1-BD1B-994BF828759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8135B38-D2BE-4842-975E-32A9B938C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="184">
   <si>
     <t>Designator</t>
   </si>
@@ -119,13 +119,13 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>2.54mm</t>
-  </si>
-  <si>
-    <t>-27.051mm</t>
-  </si>
-  <si>
-    <t>1.84mm</t>
+    <t>4.064mm</t>
+  </si>
+  <si>
+    <t>-48.006mm</t>
+  </si>
+  <si>
+    <t>-47.306mm</t>
   </si>
   <si>
     <t>LED1</t>
@@ -158,13 +158,13 @@
     <t>R0402</t>
   </si>
   <si>
-    <t>4.572mm</t>
-  </si>
-  <si>
-    <t>-24.892mm</t>
-  </si>
-  <si>
-    <t>-24.459mm</t>
+    <t>1.524mm</t>
+  </si>
+  <si>
+    <t>-10.922mm</t>
+  </si>
+  <si>
+    <t>1.091mm</t>
   </si>
   <si>
     <t>10kΩ</t>
@@ -176,10 +176,13 @@
     <t>0402WGF4702TCE</t>
   </si>
   <si>
-    <t>-26.797mm</t>
-  </si>
-  <si>
-    <t>-26.364mm</t>
+    <t>4.318mm</t>
+  </si>
+  <si>
+    <t>-11.811mm</t>
+  </si>
+  <si>
+    <t>-11.378mm</t>
   </si>
   <si>
     <t>47kΩ</t>
@@ -209,13 +212,10 @@
     <t>0402WGF2001TCE</t>
   </si>
   <si>
-    <t>1.608mm</t>
-  </si>
-  <si>
-    <t>-21.504mm</t>
-  </si>
-  <si>
-    <t>-21.937mm</t>
+    <t>-45.593mm</t>
+  </si>
+  <si>
+    <t>7.037mm</t>
   </si>
   <si>
     <t>2kΩ</t>
@@ -326,13 +326,10 @@
     <t>CL10A106KP8NNNC</t>
   </si>
   <si>
-    <t>1.524mm</t>
-  </si>
-  <si>
-    <t>-6.985mm</t>
-  </si>
-  <si>
-    <t>-7.685mm</t>
+    <t>-6.731mm</t>
+  </si>
+  <si>
+    <t>-7.431mm</t>
   </si>
   <si>
     <t>FB1</t>
@@ -341,10 +338,7 @@
     <t>0402WGF2202TCE</t>
   </si>
   <si>
-    <t>-8.89mm</t>
-  </si>
-  <si>
-    <t>1.091mm</t>
+    <t>-8.636mm</t>
   </si>
   <si>
     <t>22kΩ</t>
@@ -356,9 +350,6 @@
     <t>0402WGF1003TCE</t>
   </si>
   <si>
-    <t>1.957mm</t>
-  </si>
-  <si>
     <t>100kΩ</t>
   </si>
   <si>
@@ -371,160 +362,211 @@
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
-    <t>4.318mm</t>
+    <t>-7.112mm</t>
+  </si>
+  <si>
+    <t>5.618mm</t>
+  </si>
+  <si>
+    <t>-8.062mm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>-9.652mm</t>
+  </si>
+  <si>
+    <t>3.618mm</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SSSS811101</t>
+  </si>
+  <si>
+    <t>SW-SMD_SSSS811101</t>
+  </si>
+  <si>
+    <t>2.286mm</t>
+  </si>
+  <si>
+    <t>-16.002mm</t>
+  </si>
+  <si>
+    <t>3.836mm</t>
+  </si>
+  <si>
+    <t>-13.752mm</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>24.944mm</t>
+  </si>
+  <si>
+    <t>ESP1</t>
+  </si>
+  <si>
+    <t>ESP-12F(ESP8266MOD)</t>
+  </si>
+  <si>
+    <t>WIFIM-SMD_ESP-12F-ESP8266MOD</t>
+  </si>
+  <si>
+    <t>14.113mm</t>
+  </si>
+  <si>
+    <t>-19.177mm</t>
+  </si>
+  <si>
+    <t>13.462mm</t>
+  </si>
+  <si>
+    <t>21.113mm</t>
+  </si>
+  <si>
+    <t>-12.026mm</t>
+  </si>
+  <si>
+    <t>2.4GHz</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>ESD5451N_C2936977</t>
+  </si>
+  <si>
+    <t>X1-DFN1006-2_L1.0-W0.6-P0.65-BI</t>
+  </si>
+  <si>
+    <t>10.033mm</t>
+  </si>
+  <si>
+    <t>10.358mm</t>
+  </si>
+  <si>
+    <t>ESD5451N</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>HC-1.25-5PWT</t>
+  </si>
+  <si>
+    <t>conn-smd_5p-p1.25_hctl_hc-1.25-5pwt</t>
+  </si>
+  <si>
+    <t>14.986mm</t>
+  </si>
+  <si>
+    <t>-46.754mm</t>
+  </si>
+  <si>
+    <t>-46.609mm</t>
+  </si>
+  <si>
+    <t>12.486mm</t>
+  </si>
+  <si>
+    <t>-45.6mm</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TP4057-42-SOT26-R</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
+  </si>
+  <si>
+    <t>6.731mm</t>
+  </si>
+  <si>
+    <t>-47.879mm</t>
+  </si>
+  <si>
+    <t>5.582mm</t>
+  </si>
+  <si>
+    <t>-46.929mm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>FTC252012S2R2MBCA</t>
+  </si>
+  <si>
+    <t>IND-SMD_L2.5-W2.0_MHCHL2520</t>
+  </si>
+  <si>
+    <t>7.62mm</t>
   </si>
   <si>
     <t>-7.366mm</t>
   </si>
   <si>
-    <t>5.618mm</t>
-  </si>
-  <si>
-    <t>-8.316mm</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>-9.779mm</t>
-  </si>
-  <si>
-    <t>3.618mm</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>SSSS811101</t>
-  </si>
-  <si>
-    <t>SW-SMD_SSSS811101</t>
-  </si>
-  <si>
-    <t>2.286mm</t>
-  </si>
-  <si>
-    <t>-16.002mm</t>
-  </si>
-  <si>
-    <t>3.836mm</t>
-  </si>
-  <si>
-    <t>-13.752mm</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>24.944mm</t>
-  </si>
-  <si>
-    <t>ESP1</t>
-  </si>
-  <si>
-    <t>ESP-12F(ESP8266MOD)</t>
-  </si>
-  <si>
-    <t>WIFIM-SMD_ESP-12F-ESP8266MOD</t>
-  </si>
-  <si>
-    <t>14.113mm</t>
-  </si>
-  <si>
-    <t>-19.177mm</t>
-  </si>
-  <si>
-    <t>13.462mm</t>
-  </si>
-  <si>
-    <t>21.113mm</t>
-  </si>
-  <si>
-    <t>-12.026mm</t>
-  </si>
-  <si>
-    <t>2.4GHz</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>ESD5451N_C2936977</t>
-  </si>
-  <si>
-    <t>X1-DFN1006-2_L1.0-W0.6-P0.65-BI</t>
-  </si>
-  <si>
-    <t>10.033mm</t>
-  </si>
-  <si>
-    <t>-9.652mm</t>
-  </si>
-  <si>
-    <t>10.358mm</t>
-  </si>
-  <si>
-    <t>ESD5451N</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>HC-1.25-5PWT</t>
-  </si>
-  <si>
-    <t>conn-smd_5p-p1.25_hctl_hc-1.25-5pwt</t>
-  </si>
-  <si>
-    <t>14.986mm</t>
-  </si>
-  <si>
-    <t>-46.754mm</t>
-  </si>
-  <si>
-    <t>-46.609mm</t>
-  </si>
-  <si>
-    <t>12.486mm</t>
-  </si>
-  <si>
-    <t>-45.6mm</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>TP4057-42-SOT26-R</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
-  </si>
-  <si>
-    <t>-24.384mm</t>
-  </si>
-  <si>
-    <t>1.59mm</t>
-  </si>
-  <si>
-    <t>-25.533mm</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>FTC252012S2R2MBCA</t>
-  </si>
-  <si>
-    <t>IND-SMD_L2.5-W2.0_MHCHL2520</t>
-  </si>
-  <si>
-    <t>7.62mm</t>
-  </si>
-  <si>
     <t>-6.266mm</t>
   </si>
   <si>
     <t>2.2uH</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>2.921mm</t>
+  </si>
+  <si>
+    <t>-21.717mm</t>
+  </si>
+  <si>
+    <t>2.488mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1N5819WS_C191023</t>
+  </si>
+  <si>
+    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
+  </si>
+  <si>
+    <t>-23.241mm</t>
+  </si>
+  <si>
+    <t>1.748mm</t>
+  </si>
+  <si>
+    <t>1N5819WS</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>AO3401A_C15127</t>
+  </si>
+  <si>
+    <t>SOT-23_L2.9-W1.3-P1.90-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>-25.781mm</t>
+  </si>
+  <si>
+    <t>3.871mm</t>
+  </si>
+  <si>
+    <t>-24.631mm</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
   </si>
 </sst>
 </file>
@@ -908,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1074,10 +1116,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1086,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1162,10 +1204,10 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1174,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="L6">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -1194,22 +1236,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1224,36 +1266,36 @@
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1268,36 +1310,36 @@
         <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1306,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="L9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1373,19 +1415,19 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1678,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>104</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>105</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1713,31 +1755,31 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
         <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1752,33 +1794,33 @@
         <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>95</v>
@@ -1790,42 +1832,42 @@
         <v>21</v>
       </c>
       <c r="L20">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="I21" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>121</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -1840,12 +1882,12 @@
         <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>102</v>
@@ -1854,22 +1896,22 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1889,31 +1931,31 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="I23" t="s">
         <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" t="s">
-        <v>131</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -1928,12 +1970,12 @@
         <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -1954,7 +1996,7 @@
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
         <v>89</v>
@@ -1977,31 +2019,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" t="s">
-        <v>141</v>
       </c>
       <c r="J25">
         <v>14</v>
@@ -2016,36 +2058,36 @@
         <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" t="s">
         <v>143</v>
       </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" t="s">
-        <v>148</v>
-      </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2060,36 +2102,36 @@
         <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" t="s">
         <v>150</v>
       </c>
-      <c r="B27" t="s">
+      <c r="H27" t="s">
         <v>151</v>
       </c>
-      <c r="C27" t="s">
+      <c r="I27" t="s">
         <v>152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" t="s">
-        <v>157</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -2104,36 +2146,36 @@
         <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" t="s">
         <v>158</v>
       </c>
-      <c r="B28" t="s">
+      <c r="I28" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" t="s">
-        <v>163</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -2142,42 +2184,42 @@
         <v>21</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" t="s">
         <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" t="s">
-        <v>168</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2192,7 +2234,139 @@
         <v>22</v>
       </c>
       <c r="N29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
         <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32">
+        <v>90</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/002-‘’Choco‘’SpecialRemake/003.PickAndPlace_CK_085_DCDC_Special_remake.xlsx
+++ b/002-‘’Choco‘’SpecialRemake/003.PickAndPlace_CK_085_DCDC_Special_remake.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8135B38-D2BE-4842-975E-32A9B938C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE161D-8D41-45F0-B34A-0993BE258B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="3972" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PickAndPlace_Special remake_1_2" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
@@ -567,6 +564,10 @@
   </si>
   <si>
     <t>AO3401A</t>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -952,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1846,28 +1847,28 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
         <v>115</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>117</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -1882,12 +1883,12 @@
         <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>102</v>
@@ -1899,19 +1900,19 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
         <v>53</v>
       </c>
       <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
         <v>119</v>
       </c>
-      <c r="H22" t="s">
-        <v>120</v>
-      </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1931,31 +1932,31 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>124</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>126</v>
-      </c>
-      <c r="I23" t="s">
-        <v>127</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -1970,12 +1971,12 @@
         <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -1996,7 +1997,7 @@
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>89</v>
@@ -2019,31 +2020,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>132</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>136</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
       </c>
       <c r="J25">
         <v>14</v>
@@ -2058,36 +2059,36 @@
         <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
         <v>142</v>
       </c>
-      <c r="E26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>143</v>
-      </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2102,36 +2103,36 @@
         <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
         <v>145</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>148</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
         <v>149</v>
       </c>
-      <c r="F27" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>150</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>151</v>
-      </c>
-      <c r="I27" t="s">
-        <v>152</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -2146,36 +2147,36 @@
         <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>155</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>156</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" t="s">
         <v>157</v>
       </c>
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>158</v>
-      </c>
-      <c r="I28" t="s">
-        <v>159</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -2190,36 +2191,36 @@
         <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
         <v>160</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>161</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>162</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>163</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" t="s">
-        <v>165</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2234,12 +2235,12 @@
         <v>22</v>
       </c>
       <c r="N29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -2248,22 +2249,22 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
         <v>168</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" t="s">
         <v>169</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>168</v>
-      </c>
-      <c r="G30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" t="s">
-        <v>170</v>
-      </c>
-      <c r="I30" t="s">
-        <v>169</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2283,31 +2284,31 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
         <v>171</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>172</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
         <v>173</v>
       </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" t="s">
         <v>174</v>
       </c>
-      <c r="F31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" t="s">
-        <v>175</v>
-      </c>
       <c r="I31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2322,36 +2323,36 @@
         <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
         <v>177</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
         <v>179</v>
       </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" t="s">
         <v>180</v>
       </c>
-      <c r="F32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>181</v>
-      </c>
-      <c r="I32" t="s">
-        <v>182</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2366,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
